--- a/NewType/Eddid_CRM/config/Ayers1.xlsx
+++ b/NewType/Eddid_CRM/config/Ayers1.xlsx
@@ -7,14 +7,14 @@
     <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204">
   <si>
     <t>client_acc_id</t>
   </si>
@@ -529,7 +529,7 @@
     <t>risk_tolerance_level_experience</t>
   </si>
   <si>
-    <t>B20125618</t>
+    <t>D85620801</t>
   </si>
   <si>
     <t>M</t>
@@ -538,48 +538,47 @@
     <t/>
   </si>
   <si>
-    <t>趙信</t>
-  </si>
-  <si>
-    <t>HO PUI YEE JEANNIE HSKHWO</t>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="utf-16"?&gt;&lt;Names xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema"&gt;&lt;eng /&gt;&lt;big5&gt;何佩儀&lt;/big5&gt;&lt;gb /&gt;&lt;/Names&gt;</t>
-  </si>
-  <si>
-    <t>HO PUI YEE JEANNIE</t>
-  </si>
-  <si>
-    <t>ASHDKD</t>
-  </si>
-  <si>
-    <t>010-531563232</t>
-  </si>
-  <si>
-    <t>386505106690</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>test333@YAHOO.COM</t>
-  </si>
-  <si>
-    <t>86-15000000001</t>
-  </si>
-  <si>
-    <t>FLT  H, 1/F, BLK 6
-NAN FUNG SUN CHUEN
-QUARRY BAY HK
-BYM 100</t>
-  </si>
-  <si>
-    <t>Ms</t>
+    <t>彭佳慧</t>
+  </si>
+  <si>
+    <t>PANG CHUN HONG</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-16"?&gt;&lt;Names xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema"&gt;&lt;eng /&gt;&lt;big5&gt;彭俊康&lt;/big5&gt;&lt;gb /&gt;&lt;/Names&gt;</t>
+  </si>
+  <si>
+    <t>HSBC</t>
+  </si>
+  <si>
+    <t>006-247001-833</t>
+  </si>
+  <si>
+    <t>441806195405120687</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>onedi452@EDDID.COM.HK</t>
+  </si>
+  <si>
+    <t>9107-7222740</t>
+  </si>
+  <si>
+    <t>RM736 ,  HOI AU HSE ,  YUE KONG CHUEN , 
+ABERDEEN , H.K .</t>
+  </si>
+  <si>
+    <t>Mr</t>
   </si>
   <si>
     <t>IV</t>
   </si>
   <si>
+    <t>HSBC
+006-247001-833</t>
+  </si>
+  <si>
     <t>big5</t>
   </si>
   <si>
@@ -589,13 +588,10 @@
     <t>Y</t>
   </si>
   <si>
-    <t>AARON 01</t>
-  </si>
-  <si>
-    <t>AUS</t>
-  </si>
-  <si>
-    <t>欠銀行戶口證明</t>
+    <t>000(HK)</t>
+  </si>
+  <si>
+    <t>CHN</t>
   </si>
   <si>
     <t>EDDIE</t>
@@ -607,37 +603,31 @@
     <t>HK</t>
   </si>
   <si>
-    <t>IDHK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JEANNIE</t>
-  </si>
-  <si>
-    <t>HO</t>
-  </si>
-  <si>
-    <t>PUI YE</t>
+    <t>IDCNs</t>
+  </si>
+  <si>
+    <t>HKG</t>
+  </si>
+  <si>
+    <t>PANG</t>
+  </si>
+  <si>
+    <t>CHUN HONG</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>0.25% 100, 0% 28:COMM</t>
-  </si>
-  <si>
-    <t>P+8:DBINT</t>
+    <t>0.07% MIN 50:COMM</t>
+  </si>
+  <si>
+    <t>P+5:DBINT</t>
   </si>
   <si>
     <t>HKD_SAV:CRINT</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>d</t>
+    <t>0000000</t>
   </si>
 </sst>
 </file>
@@ -645,43 +635,98 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d\ hh:mm"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF555555"/>
-      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -689,81 +734,53 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -771,54 +788,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -831,13 +816,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,7 +948,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,157 +978,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,6 +1007,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1041,32 +1085,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1081,30 +1099,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1113,181 +1107,166 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1350,7 +1329,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1366,7 +1345,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1378,7 +1357,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1395,9 +1374,9 @@
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1430,9 +1409,9 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1609,18 +1588,28 @@
   <sheetPr/>
   <dimension ref="A1:FO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.125" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="4" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="16384" width="24.125" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="183.5" customWidth="1"/>
+    <col min="9" max="9" width="19.125" customWidth="1"/>
+    <col min="10" max="10" width="20.75" customWidth="1"/>
+    <col min="11" max="11" width="29.75" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1"/>
+    <col min="21" max="21" width="14.375" customWidth="1"/>
+    <col min="50" max="50" width="13.5" customWidth="1"/>
+    <col min="137" max="137" width="13.5" customWidth="1"/>
+    <col min="161" max="161" width="16.75" customWidth="1"/>
+    <col min="162" max="162" width="11.875" customWidth="1"/>
+    <col min="163" max="163" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12.75" spans="1:171">
+    <row r="1" s="1" customFormat="1" spans="1:171">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2135,8 +2124,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="51" spans="1:171">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" ht="102" spans="1:168">
+      <c r="A2" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2145,7 +2134,7 @@
       <c r="C2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>174</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2161,36 +2150,39 @@
         <v>176</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="S2" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="3">
+        <v>27332</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="U2" s="6">
-        <v>21098</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="2" t="s">
         <v>186</v>
       </c>
       <c r="X2" s="1" t="s">
@@ -2206,7 +2198,7 @@
         <v>190</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>191</v>
@@ -2214,50 +2206,47 @@
       <c r="AT2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AX2" s="3">
+        <v>43412.3817361111</v>
+      </c>
+      <c r="AY2" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AX2" s="6">
-        <v>43476.4518865741</v>
-      </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="BK2" s="1" t="s">
         <v>189</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="CQ2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="CR2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="CR2" s="1" t="s">
+      <c r="DF2" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="DF2" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="DP2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="EE2" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="EG2" s="6">
-        <v>43412</v>
+      <c r="EE2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="EF2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="EG2" s="3">
+        <v>43411</v>
       </c>
       <c r="EH2" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="EI2" s="1" t="s">
         <v>189</v>
@@ -2266,53 +2255,47 @@
         <v>189</v>
       </c>
       <c r="EO2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="EP2" s="1">
+        <v>0.07</v>
+      </c>
+      <c r="EQ2" s="1">
+        <v>50</v>
+      </c>
+      <c r="ER2" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="EP2" s="1">
-        <v>0</v>
-      </c>
-      <c r="EQ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="ER2" s="1" t="s">
+      <c r="ES2" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="ES2" s="1" t="s">
+      <c r="FE2" s="1">
+        <v>555555</v>
+      </c>
+      <c r="FF2" s="1">
+        <v>66666</v>
+      </c>
+      <c r="FG2" s="1">
+        <v>77777</v>
+      </c>
+      <c r="FH2" s="1">
+        <v>888888</v>
+      </c>
+      <c r="FI2" s="1">
+        <v>99999</v>
+      </c>
+      <c r="FJ2" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="FG2" s="1">
-        <v>323</v>
-      </c>
-      <c r="FH2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="FI2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="FJ2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="FK2" s="7">
-        <v>43514</v>
-      </c>
-      <c r="FL2" s="7">
-        <v>43514</v>
-      </c>
-      <c r="FM2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FN2" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="FO2" s="1" t="s">
-        <v>200</v>
+      <c r="FK2" s="3">
+        <v>43475</v>
+      </c>
+      <c r="FL2" s="3">
+        <v>43475</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" display="test333@YAHOO.COM"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>